--- a/Week_13/appdg2/downloaded.xlsx
+++ b/Week_13/appdg2/downloaded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\git_v3\HealthCare_project\Week_13\appdg2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4813790A-1352-486C-8547-FFB613AFCF42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98B7B9E-4F44-4CF5-A871-6CC561B58A3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1604963C-24BB-4587-B425-F02303289D06}"/>
+    <workbookView xWindow="8652" yWindow="2316" windowWidth="13860" windowHeight="8748" xr2:uid="{1604963C-24BB-4587-B425-F02303289D06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t>Region</t>
   </si>
@@ -144,12 +144,6 @@
     <t>Count_Of_Risks</t>
   </si>
   <si>
-    <t>Not Hispanic</t>
-  </si>
-  <si>
-    <t>GENERAL PRACTITIONER</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -160,6 +154,9 @@
   </si>
   <si>
     <t>Risk_Smoking_Tobacco</t>
+  </si>
+  <si>
+    <t>West</t>
   </si>
 </sst>
 </file>
@@ -528,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D8C604-34EE-4C63-80B5-B10FD89684E1}">
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,129 +650,129 @@
         <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="W2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AM2" s="2">
         <v>5</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
